--- a/plantilla-para-analisis-produccion-de-textos-4-dimensiones-3-indicadores-indices-0-1-2.xlsx
+++ b/plantilla-para-analisis-produccion-de-textos-4-dimensiones-3-indicadores-indices-0-1-2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Datos/sucerman/Documents/github/seminario-analisis-informacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo\Documents\GitHub\seminario-analisis-informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pretest" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Comparacion de Medias" sheetId="4" r:id="rId5"/>
     <sheet name="T-student" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="84">
   <si>
     <t>DIMENSION 1</t>
   </si>
@@ -267,11 +267,26 @@
   <si>
     <t>TOTAL-POST</t>
   </si>
+  <si>
+    <t>DIMENSIÓN-1</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-2</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-3</t>
+  </si>
+  <si>
+    <t>Total Prueba</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -514,7 +529,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,6 +629,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,9 +704,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -761,7 +777,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -863,7 +879,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -917,10 +933,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.483333333333333</c:v>
+                  <c:v>0.48333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.45</c:v>
@@ -928,6 +944,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFB6-40ED-B912-C834173E2B13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -981,7 +1002,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1038,14 +1059,19 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFB6-40ED-B912-C834173E2B13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1096,7 +1122,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121843456"/>
@@ -1178,7 +1204,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1210,7 +1236,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121840016"/>
@@ -1252,7 +1278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1290,7 +1316,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1302,9 +1328,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1379,7 +1405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1469,7 +1495,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1479,7 +1505,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1523,18 +1549,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3299-47AE-B84A-007C5CA9CFC8}"/>
             </c:ext>
@@ -1595,7 +1621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118436528"/>
@@ -1654,7 +1680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118439792"/>
@@ -1695,7 +1721,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1707,9 +1733,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1771,7 +1797,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1861,7 +1887,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1871,7 +1897,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1915,10 +1941,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -1926,7 +1952,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11FF-4678-B6C9-7C81320646E9}"/>
             </c:ext>
@@ -1987,7 +2013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118378736"/>
@@ -2046,7 +2072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118382000"/>
@@ -2087,7 +2113,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2099,9 +2125,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2163,7 +2189,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2253,7 +2279,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2263,7 +2289,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2307,10 +2333,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -2318,7 +2344,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7276-478F-9379-681AC9BCB5C0}"/>
             </c:ext>
@@ -2379,7 +2405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118341664"/>
@@ -2438,7 +2464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118344928"/>
@@ -2479,7 +2505,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2491,9 +2517,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2555,7 +2581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2646,7 +2672,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2656,7 +2682,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2703,15 +2729,15 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E632-46D4-93E1-48ABDD7F93B2}"/>
             </c:ext>
@@ -2766,7 +2792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118305120"/>
@@ -2825,7 +2851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118308432"/>
@@ -2866,7 +2892,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2878,9 +2904,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2947,7 +2973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3038,7 +3064,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3048,7 +3074,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3092,18 +3118,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A43C-4C73-B118-61B303FC4E76}"/>
             </c:ext>
@@ -3158,7 +3184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118267808"/>
@@ -3217,7 +3243,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118271120"/>
@@ -3258,7 +3284,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3270,9 +3296,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3339,7 +3365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3441,7 +3467,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3498,14 +3524,19 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C93-4A8A-A8B4-DBE5CEFD56E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3559,7 +3590,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3613,17 +3644,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C93-4A8A-A8B4-DBE5CEFD56E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3674,7 +3710,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066629712"/>
@@ -3756,7 +3792,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3788,7 +3824,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066489936"/>
@@ -3830,7 +3866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3868,7 +3904,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3880,9 +3916,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3949,7 +3985,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4051,7 +4087,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4105,10 +4141,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2</c:v>
@@ -4116,6 +4152,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95B3-4E0E-9D27-3F5FD19088AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4169,7 +4210,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4223,10 +4264,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.4</c:v>
@@ -4234,6 +4275,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95B3-4E0E-9D27-3F5FD19088AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4284,7 +4330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118197040"/>
@@ -4366,7 +4412,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4398,7 +4444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118200496"/>
@@ -4440,7 +4486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4478,7 +4524,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4490,9 +4536,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4559,7 +4605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4661,7 +4707,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4715,10 +4761,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -4726,6 +4772,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F349-4118-A119-4840BD420A99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4779,7 +4830,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4833,17 +4884,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F349-4118-A119-4840BD420A99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4894,7 +4950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118145136"/>
@@ -4976,7 +5032,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5008,7 +5064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118148592"/>
@@ -5050,7 +5106,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5088,7 +5144,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5100,9 +5156,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5169,7 +5225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5271,7 +5327,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5325,10 +5381,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -5336,6 +5392,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44E2-4546-A2BF-3846B04C3840}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5389,7 +5450,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5443,17 +5504,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44E2-4546-A2BF-3846B04C3840}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5504,7 +5570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139483680"/>
@@ -5586,7 +5652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5618,7 +5684,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139480240"/>
@@ -5660,7 +5726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5698,7 +5764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5710,9 +5776,9 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5779,7 +5845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5881,7 +5947,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5935,10 +6001,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -5946,6 +6012,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA5C-4A95-A739-06E44A6F5784}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5999,7 +6070,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6053,10 +6124,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -6064,6 +6135,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA5C-4A95-A739-06E44A6F5784}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6114,7 +6190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139535232"/>
@@ -6196,7 +6272,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6228,7 +6304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139531792"/>
@@ -6270,7 +6346,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6308,7 +6384,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6320,9 +6396,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6393,7 +6469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6495,7 +6571,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6560,6 +6636,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-485D-4556-B464-3A7114A6D310}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6613,7 +6694,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6673,11 +6754,16 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.766666666666667</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-485D-4556-B464-3A7114A6D310}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6728,7 +6814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119005328"/>
@@ -6810,7 +6896,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6842,7 +6928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119001888"/>
@@ -6884,7 +6970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6922,7 +7008,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6934,9 +7020,9 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7003,7 +7089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7070,94 +7156,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7169,100 +7255,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AE48-4873-8D38-F7BF2E2CE9BE}"/>
             </c:ext>
@@ -7325,94 +7411,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7424,100 +7510,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AE48-4873-8D38-F7BF2E2CE9BE}"/>
             </c:ext>
@@ -7589,7 +7675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2104807712"/>
@@ -7651,7 +7737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2104811328"/>
@@ -7693,7 +7779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7723,7 +7809,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7735,9 +7821,9 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7804,7 +7890,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7871,94 +7957,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7970,100 +8056,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06A9-4374-B2D1-F67185779E67}"/>
             </c:ext>
@@ -8126,94 +8212,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8225,100 +8311,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-06A9-4374-B2D1-F67185779E67}"/>
             </c:ext>
@@ -8390,7 +8476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139628080"/>
@@ -8452,7 +8538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139624816"/>
@@ -8494,7 +8580,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8524,7 +8610,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8536,9 +8622,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8609,7 +8695,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8711,7 +8797,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8776,6 +8862,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-468C-45D9-A5D7-2CCA69145761}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8829,7 +8920,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8883,7 +8974,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -8894,6 +8985,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-468C-45D9-A5D7-2CCA69145761}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8944,7 +9040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121886720"/>
@@ -9026,7 +9122,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9058,7 +9154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121883280"/>
@@ -9100,7 +9196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9138,7 +9234,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9150,9 +9246,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9223,7 +9319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9325,7 +9421,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9390,6 +9486,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-353D-4D30-BA13-18B4D057F831}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9443,7 +9544,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9500,7 +9601,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7</c:v>
@@ -9508,6 +9609,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-353D-4D30-BA13-18B4D057F831}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9558,7 +9664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066163552"/>
@@ -9640,7 +9746,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9672,7 +9778,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066347472"/>
@@ -9714,7 +9820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9752,7 +9858,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9764,9 +9870,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9841,7 +9947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9913,11 +10019,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-EF4F-4F7C-84EF-B70FDEF3062F}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9928,11 +10034,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-EF4F-4F7C-84EF-B70FDEF3062F}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9943,11 +10049,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-EF4F-4F7C-84EF-B70FDEF3062F}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9976,7 +10082,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9985,7 +10091,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10029,10 +10135,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2</c:v>
@@ -10040,7 +10146,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EF4F-4F7C-84EF-B70FDEF3062F}"/>
             </c:ext>
@@ -10101,7 +10207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119095520"/>
@@ -10160,7 +10266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119092176"/>
@@ -10201,7 +10307,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10213,9 +10319,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10282,7 +10388,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10372,7 +10478,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10382,7 +10488,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10426,10 +10532,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.4</c:v>
@@ -10437,7 +10543,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B914-4FFF-A1CF-67F52A9E1E1A}"/>
             </c:ext>
@@ -10498,7 +10604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119141792"/>
@@ -10557,7 +10663,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119138480"/>
@@ -10598,7 +10704,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10610,9 +10716,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10683,7 +10789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10773,7 +10879,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10783,7 +10889,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10827,10 +10933,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -10838,7 +10944,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D404-49DB-BEAB-6E7353CCF63A}"/>
             </c:ext>
@@ -10899,7 +11005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066554496"/>
@@ -10958,7 +11064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2066445040"/>
@@ -10999,7 +11105,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11011,9 +11117,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11088,7 +11194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11178,7 +11284,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11188,7 +11294,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11232,18 +11338,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1249-4F40-B3DE-16BC57EAE760}"/>
             </c:ext>
@@ -11304,7 +11410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121972864"/>
@@ -11363,7 +11469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121969552"/>
@@ -11404,7 +11510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11416,9 +11522,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11485,7 +11591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11575,7 +11681,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11585,7 +11691,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11629,10 +11735,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -11640,7 +11746,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41E0-40BA-BD08-641F9A055129}"/>
             </c:ext>
@@ -11701,7 +11807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118478880"/>
@@ -11760,7 +11866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2118475648"/>
@@ -11801,7 +11907,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23159,7 +23265,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23189,7 +23301,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23219,7 +23337,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23249,7 +23373,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23287,7 +23417,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23323,7 +23453,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23359,7 +23489,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23395,7 +23525,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23431,7 +23561,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23467,7 +23597,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23503,7 +23633,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23539,7 +23669,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23575,7 +23705,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF56C1DF-A3A1-439F-AD46-DF8874E0C3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23611,7 +23741,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{959C81E5-E5E8-4722-A54C-E9176A34DE19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23644,7 +23774,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -23676,7 +23812,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -23708,7 +23850,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -23740,7 +23888,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -23772,7 +23926,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Gráfico 16"/>
+        <xdr:cNvPr id="17" name="Gráfico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -23796,23 +23956,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424295</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1212272</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>59170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23837,23 +23997,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>758825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24136,78 +24296,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.125" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.125" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.125" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="24" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="24"/>
+    <col min="24" max="24" width="10.875" style="24"/>
     <col min="25" max="25" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="24" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="24"/>
+    <col min="29" max="29" width="5.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="58" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="60" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -24271,8 +24431,8 @@
       <c r="U2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
       <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
@@ -24289,7 +24449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -24307,7 +24467,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="30" t="str">
-        <f>IF(AND(E3&gt;=0,E3&lt;=2),"bajo",IF(AND(E3&gt;2,E3&lt;=4),"medio",IF(AND(E3&gt;4,E3&lt;=6),"alto")))</f>
+        <f>IF(AND(E3&gt;=0,E3&lt;2),"bajo",IF(AND(E3&gt;=2,E3&lt;=4),"medio",IF(AND(E3&gt;4,E3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="G3" s="29">
@@ -24324,7 +24484,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="31" t="str">
-        <f>IF(AND(J3&gt;=0,J3&lt;=2),"bajo",IF(AND(J3&gt;2,J3&lt;=4),"medio",IF(AND(J3&gt;4,J3&lt;=6),"alto")))</f>
+        <f>IF(AND(J3&gt;=0,J3&lt;2),"bajo",IF(AND(J3&gt;=2,J3&lt;=4),"medio",IF(AND(J3&gt;4,J3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="L3" s="29">
@@ -24341,7 +24501,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="32" t="str">
-        <f>IF(AND(O3&gt;=0,O3&lt;=2),"bajo",IF(AND(O3&gt;2,O3&lt;=4),"medio",IF(AND(O3&gt;4,O3&lt;=6),"alto")))</f>
+        <f>IF(AND(O3&gt;=0,O3&lt;2),"bajo",IF(AND(O3&gt;=2,O3&lt;=4),"medio",IF(AND(O3&gt;4,O3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Q3" s="29">
@@ -24358,7 +24518,7 @@
         <v>6</v>
       </c>
       <c r="U3" s="31" t="str">
-        <f>IF(AND(T3&gt;=0,T3&lt;=2),"bajo",IF(AND(T3&gt;2,T3&lt;=4),"medio",IF(AND(T3&gt;4,T3&lt;=6),"alto")))</f>
+        <f>IF(AND(T3&gt;=0,T3&lt;2),"bajo",IF(AND(T3&gt;=2,T3&lt;=4),"medio",IF(AND(T3&gt;4,T3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="V3" s="33">
@@ -24366,7 +24526,7 @@
         <v>24</v>
       </c>
       <c r="W3" s="33" t="str">
-        <f>IF(AND(V3&gt;=0,V3&lt;8),"bajo",IF(AND(V3&gt;=8,V3&lt;16),"medio",IF(AND(V3&gt;=16,V3&lt;=24),"alto")))</f>
+        <f>IF(AND(V3&gt;=0,V3&lt;8),"bajo",IF(AND(V3&gt;=8,V3&lt;=16),"medio",IF(AND(V3&gt;16,V3&lt;=24),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Y3" s="51" t="s">
@@ -24374,11 +24534,11 @@
       </c>
       <c r="Z3" s="30">
         <f>COUNTIF(F3:F32,"bajo")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="30">
         <f>COUNTIF(F3:F32,"medio")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB3" s="30">
         <f>COUNTIF(F3:F32,"alto")</f>
@@ -24389,7 +24549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -24407,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="30" t="str">
-        <f t="shared" ref="F4:F32" si="3">IF(AND(E4&gt;=0,E4&lt;=2),"bajo",IF(AND(E4&gt;2,E4&lt;=4),"medio",IF(AND(E4&gt;4,E4&lt;=6),"alto")))</f>
+        <f t="shared" ref="F4:F32" si="3">IF(AND(E4&gt;=0,E4&lt;2),"bajo",IF(AND(E4&gt;=2,E4&lt;=4),"medio",IF(AND(E4&gt;4,E4&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="G4" s="29">
@@ -24424,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="31" t="str">
-        <f t="shared" ref="K4:K32" si="5">IF(AND(J4&gt;=0,J4&lt;=2),"bajo",IF(AND(J4&gt;2,J4&lt;=4),"medio",IF(AND(J4&gt;4,J4&lt;=6),"alto")))</f>
+        <f t="shared" ref="K4:K32" si="5">IF(AND(J4&gt;=0,J4&lt;2),"bajo",IF(AND(J4&gt;=2,J4&lt;=4),"medio",IF(AND(J4&gt;4,J4&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="L4" s="29">
@@ -24441,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="32" t="str">
-        <f t="shared" ref="P4:P32" si="6">IF(AND(O4&gt;=0,O4&lt;=2),"bajo",IF(AND(O4&gt;2,O4&lt;=4),"medio",IF(AND(O4&gt;4,O4&lt;=6),"alto")))</f>
+        <f t="shared" ref="P4:P32" si="6">IF(AND(O4&gt;=0,O4&lt;2),"bajo",IF(AND(O4&gt;=2,O4&lt;=4),"medio",IF(AND(O4&gt;4,O4&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="Q4" s="29">
@@ -24458,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="31" t="str">
-        <f t="shared" ref="U4:U32" si="8">IF(AND(T4&gt;=0,T4&lt;=2),"bajo",IF(AND(T4&gt;2,T4&lt;=4),"medio",IF(AND(T4&gt;4,T4&lt;=6),"alto")))</f>
+        <f t="shared" ref="U4:U32" si="8">IF(AND(T4&gt;=0,T4&lt;2),"bajo",IF(AND(T4&gt;=2,T4&lt;=4),"medio",IF(AND(T4&gt;4,T4&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="V4" s="33">
@@ -24466,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="33" t="str">
-        <f t="shared" ref="W4:W32" si="9">IF(AND(V4&gt;=0,V4&lt;8),"bajo",IF(AND(V4&gt;=8,V4&lt;16),"medio",IF(AND(V4&gt;=16,V4&lt;=24),"alto")))</f>
+        <f t="shared" ref="W4:W32" si="9">IF(AND(V4&gt;=0,V4&lt;8),"bajo",IF(AND(V4&gt;=8,V4&lt;=16),"medio",IF(AND(V4&gt;16,V4&lt;=24),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="Y4" s="49" t="s">
@@ -24474,11 +24634,11 @@
       </c>
       <c r="Z4" s="31">
         <f>COUNTIF(K3:K32,"bajo")</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="31">
         <f>COUNTIF(K3:K32,"medio")</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB4" s="31">
         <f>COUNTIF(K3:K32,"alto")</f>
@@ -24489,7 +24649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -24574,11 +24734,11 @@
       </c>
       <c r="Z5" s="32">
         <f>COUNTIF(P3:P32,"bajo")</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA5" s="32">
         <f>COUNTIF(P3:P32,"medio")</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="32">
         <f>COUNTIF(P3:P32,"alto")</f>
@@ -24589,7 +24749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -24674,11 +24834,11 @@
       </c>
       <c r="Z6" s="33">
         <f>COUNTIF(U3:U32,"bajo")</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA6" s="33">
         <f>COUNTIF(U3:U32,"medio")</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="33">
         <f>COUNTIF(U3:U32,"alto")</f>
@@ -24689,7 +24849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -24767,7 +24927,7 @@
       </c>
       <c r="W7" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Y7" s="53" t="s">
         <v>60</v>
@@ -24778,11 +24938,11 @@
       </c>
       <c r="AA7" s="33">
         <f>COUNTIF(W3:W32,"medio")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB7" s="33">
         <f>COUNTIF(W3:W32,"alto")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="33">
         <f>SUM(Z7:AB7)</f>
@@ -24808,7 +24968,7 @@
       </c>
       <c r="F8" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G8" s="29">
         <v>2</v>
@@ -24906,7 +25066,7 @@
       </c>
       <c r="K9" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L9" s="29">
         <v>1</v>
@@ -24923,7 +25083,7 @@
       </c>
       <c r="P9" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q9" s="29">
         <v>1</v>
@@ -24940,7 +25100,7 @@
       </c>
       <c r="U9" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V9" s="33">
         <f t="shared" si="1"/>
@@ -24987,7 +25147,7 @@
       </c>
       <c r="K10" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L10" s="29">
         <v>1</v>
@@ -25004,7 +25164,7 @@
       </c>
       <c r="P10" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q10" s="29">
         <v>1</v>
@@ -25021,7 +25181,7 @@
       </c>
       <c r="U10" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V10" s="33">
         <f t="shared" si="1"/>
@@ -25068,7 +25228,7 @@
       </c>
       <c r="K11" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L11" s="29">
         <v>1</v>
@@ -25085,7 +25245,7 @@
       </c>
       <c r="P11" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q11" s="29">
         <v>1</v>
@@ -25102,7 +25262,7 @@
       </c>
       <c r="U11" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V11" s="33">
         <f t="shared" si="1"/>
@@ -25213,7 +25373,7 @@
       </c>
       <c r="F13" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G13" s="29">
         <v>2</v>
@@ -25716,7 +25876,7 @@
       </c>
       <c r="K19" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L19" s="29">
         <v>2</v>
@@ -25733,7 +25893,7 @@
       </c>
       <c r="P19" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q19" s="29">
         <v>2</v>
@@ -25750,7 +25910,7 @@
       </c>
       <c r="U19" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V19" s="33">
         <f t="shared" si="1"/>
@@ -25861,7 +26021,7 @@
       </c>
       <c r="F21" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G21" s="29">
         <v>1</v>
@@ -26202,7 +26362,7 @@
       </c>
       <c r="K25" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L25" s="29">
         <v>0</v>
@@ -26219,7 +26379,7 @@
       </c>
       <c r="P25" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q25" s="29">
         <v>0</v>
@@ -26236,7 +26396,7 @@
       </c>
       <c r="U25" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V25" s="33">
         <f t="shared" si="1"/>
@@ -26347,7 +26507,7 @@
       </c>
       <c r="F27" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G27" s="29">
         <v>1</v>
@@ -26445,7 +26605,7 @@
       </c>
       <c r="K28" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L28" s="29">
         <v>0</v>
@@ -26462,7 +26622,7 @@
       </c>
       <c r="P28" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q28" s="29">
         <v>0</v>
@@ -26479,7 +26639,7 @@
       </c>
       <c r="U28" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V28" s="33">
         <f t="shared" si="1"/>
@@ -26590,7 +26750,7 @@
       </c>
       <c r="F30" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G30" s="29">
         <v>0</v>
@@ -26607,7 +26767,7 @@
       </c>
       <c r="K30" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L30" s="29">
         <v>0</v>
@@ -26624,7 +26784,7 @@
       </c>
       <c r="P30" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q30" s="29">
         <v>0</v>
@@ -26641,7 +26801,7 @@
       </c>
       <c r="U30" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V30" s="33">
         <f t="shared" si="1"/>
@@ -26688,7 +26848,7 @@
       </c>
       <c r="K31" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L31" s="29">
         <v>0</v>
@@ -26705,7 +26865,7 @@
       </c>
       <c r="P31" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q31" s="29">
         <v>0</v>
@@ -26722,7 +26882,7 @@
       </c>
       <c r="U31" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V31" s="33">
         <f t="shared" si="1"/>
@@ -26769,7 +26929,7 @@
       </c>
       <c r="K32" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L32" s="29">
         <v>1</v>
@@ -26786,7 +26946,7 @@
       </c>
       <c r="P32" s="32" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q32" s="29">
         <v>1</v>
@@ -26803,7 +26963,7 @@
       </c>
       <c r="U32" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V32" s="33">
         <f t="shared" si="1"/>
@@ -26830,7 +26990,10 @@
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="35">
+        <f>SUM(E3:E32)</f>
+        <v>82</v>
+      </c>
       <c r="F33" s="36"/>
       <c r="G33" s="37">
         <f t="shared" ref="G33:I33" si="11">SUM(G3:G32)</f>
@@ -26844,7 +27007,10 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="37">
+        <f>SUM(J3:J32)</f>
+        <v>78</v>
+      </c>
       <c r="K33" s="29"/>
       <c r="L33" s="38">
         <f>SUM(L3:L32)</f>
@@ -26858,7 +27024,10 @@
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="O33" s="29"/>
+      <c r="O33" s="38">
+        <f>SUM(O3:O32)</f>
+        <v>78</v>
+      </c>
       <c r="P33" s="29"/>
       <c r="Q33" s="37">
         <f t="shared" ref="Q33:S33" si="13">SUM(Q3:Q32)</f>
@@ -26872,72 +27041,93 @@
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="T33" s="29"/>
+      <c r="T33" s="37">
+        <f>SUM(T3:T32)</f>
+        <v>78</v>
+      </c>
       <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
+      <c r="V33" s="53">
+        <f>SUM(V3:V32)</f>
+        <v>316</v>
+      </c>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="42">
-        <f>B33/($A$32*2)</f>
+        <f>B33/(30*2)</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="C34" s="42">
-        <f>C33/($A$32*2)</f>
+        <f t="shared" ref="C34:D34" si="14">C33/(30*2)</f>
         <v>0.48333333333333334</v>
       </c>
       <c r="D34" s="42">
-        <f>D33/($A$32*2)</f>
+        <f t="shared" si="14"/>
         <v>0.45</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="42">
+        <f>E33/(30*6)</f>
+        <v>0.45555555555555555</v>
+      </c>
       <c r="F34" s="43"/>
       <c r="G34" s="44">
-        <f>G33/($A$32*2)</f>
+        <f>G33/(30*2)</f>
         <v>0.5</v>
       </c>
       <c r="H34" s="44">
-        <f>H33/($A$32*2)</f>
+        <f t="shared" ref="H34:I34" si="15">H33/(30*2)</f>
         <v>0.35</v>
       </c>
       <c r="I34" s="44">
-        <f>I33/($A$32*2)</f>
+        <f t="shared" si="15"/>
         <v>0.45</v>
       </c>
-      <c r="J34" s="43"/>
+      <c r="J34" s="44">
+        <f>J33/(30*6)</f>
+        <v>0.43333333333333335</v>
+      </c>
       <c r="K34" s="43"/>
       <c r="L34" s="45">
-        <f>L33/($A$32*2)</f>
+        <f>L33/(30*2)</f>
         <v>0.5</v>
       </c>
       <c r="M34" s="45">
-        <f>M33/($A$32*2)</f>
+        <f t="shared" ref="M34:N34" si="16">M33/(30*2)</f>
         <v>0.35</v>
       </c>
       <c r="N34" s="45">
-        <f>N33/($A$32*2)</f>
+        <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
-      <c r="O34" s="43"/>
+      <c r="O34" s="45">
+        <f>O33/(30*6)</f>
+        <v>0.43333333333333335</v>
+      </c>
       <c r="P34" s="43"/>
       <c r="Q34" s="44">
-        <f>Q33/($A$32*2)</f>
+        <f>Q33/(30*2)</f>
         <v>0.5</v>
       </c>
       <c r="R34" s="44">
-        <f>R33/($A$32*2)</f>
+        <f t="shared" ref="R34:S34" si="17">R33/(30*2)</f>
         <v>0.35</v>
       </c>
       <c r="S34" s="44">
-        <f>S33/($A$32*2)</f>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
-      <c r="T34" s="43"/>
+      <c r="T34" s="44">
+        <f>T33/(30*6)</f>
+        <v>0.43333333333333335</v>
+      </c>
       <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
+      <c r="V34" s="57">
+        <f>V33/(30*24)</f>
+        <v>0.43888888888888888</v>
+      </c>
       <c r="W34" s="43"/>
     </row>
   </sheetData>
@@ -26950,82 +27140,83 @@
     <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:W32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.125" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.125" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.125" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="24" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="24"/>
+    <col min="24" max="24" width="10.875" style="24"/>
     <col min="25" max="25" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="24" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="24"/>
+    <col min="29" max="29" width="5.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="58" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="60" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -27089,8 +27280,8 @@
       <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
       <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
@@ -27107,7 +27298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -27125,7 +27316,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="30" t="str">
-        <f>IF(AND(E3&gt;=0,E3&lt;=2),"bajo",IF(AND(E3&gt;2,E3&lt;=4),"medio",IF(AND(E3&gt;4,E3&lt;=6),"alto")))</f>
+        <f>IF(AND(E3&gt;=0,E3&lt;2),"bajo",IF(AND(E3&gt;=2,E3&lt;=4),"medio",IF(AND(E3&gt;4,E3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="G3" s="29">
@@ -27142,7 +27333,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="31" t="str">
-        <f>IF(AND(J3&gt;=0,J3&lt;=2),"bajo",IF(AND(J3&gt;2,J3&lt;=4),"medio",IF(AND(J3&gt;4,J3&lt;=6),"alto")))</f>
+        <f>IF(AND(J3&gt;=0,J3&lt;2),"bajo",IF(AND(J3&gt;=2,J3&lt;=4),"medio",IF(AND(J3&gt;4,J3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="L3" s="29">
@@ -27159,7 +27350,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="32" t="str">
-        <f>IF(AND(O3&gt;=0,O3&lt;=2),"bajo",IF(AND(O3&gt;2,O3&lt;=4),"medio",IF(AND(O3&gt;4,O3&lt;=6),"alto")))</f>
+        <f>IF(AND(O3&gt;=0,O3&lt;2),"bajo",IF(AND(O3&gt;=2,O3&lt;=4),"medio",IF(AND(O3&gt;4,O3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Q3" s="29">
@@ -27176,7 +27367,7 @@
         <v>6</v>
       </c>
       <c r="U3" s="31" t="str">
-        <f>IF(AND(T3&gt;=0,T3&lt;=2),"bajo",IF(AND(T3&gt;2,T3&lt;=4),"medio",IF(AND(T3&gt;4,T3&lt;=6),"alto")))</f>
+        <f>IF(AND(T3&gt;=0,T3&lt;2),"bajo",IF(AND(T3&gt;=2,T3&lt;=4),"medio",IF(AND(T3&gt;4,T3&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="V3" s="33">
@@ -27184,7 +27375,7 @@
         <v>24</v>
       </c>
       <c r="W3" s="33" t="str">
-        <f>IF(AND(V3&gt;=0,V3&lt;8),"bajo",IF(AND(V3&gt;=8,V3&lt;16),"medio",IF(AND(V3&gt;=16,V3&lt;=24),"alto")))</f>
+        <f>IF(AND(V3&gt;=0,V3&lt;8),"bajo",IF(AND(V3&gt;=8,V3&lt;=16),"medio",IF(AND(V3&gt;16,V3&lt;=24),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Y3" s="51" t="s">
@@ -27192,11 +27383,11 @@
       </c>
       <c r="Z3" s="30">
         <f>COUNTIF(F3:F32,"bajo")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="30">
         <f>COUNTIF(F3:F32,"medio")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="30">
         <f>COUNTIF(F3:F32,"alto")</f>
@@ -27207,7 +27398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -27225,7 +27416,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="30" t="str">
-        <f t="shared" ref="F4:F32" si="3">IF(AND(E4&gt;=0,E4&lt;=2),"bajo",IF(AND(E4&gt;2,E4&lt;=4),"medio",IF(AND(E4&gt;4,E4&lt;=6),"alto")))</f>
+        <f t="shared" ref="F4:F32" si="3">IF(AND(E4&gt;=0,E4&lt;2),"bajo",IF(AND(E4&gt;=2,E4&lt;=4),"medio",IF(AND(E4&gt;4,E4&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="G4" s="29">
@@ -27242,7 +27433,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="31" t="str">
-        <f t="shared" ref="K4:K32" si="5">IF(AND(J4&gt;=0,J4&lt;=2),"bajo",IF(AND(J4&gt;2,J4&lt;=4),"medio",IF(AND(J4&gt;4,J4&lt;=6),"alto")))</f>
+        <f t="shared" ref="K4:K32" si="5">IF(AND(J4&gt;=0,J4&lt;2),"bajo",IF(AND(J4&gt;=2,J4&lt;=4),"medio",IF(AND(J4&gt;4,J4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="L4" s="29">
@@ -27259,7 +27450,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="32" t="str">
-        <f t="shared" ref="P4:P32" si="6">IF(AND(O4&gt;=0,O4&lt;=2),"bajo",IF(AND(O4&gt;2,O4&lt;=4),"medio",IF(AND(O4&gt;4,O4&lt;=6),"alto")))</f>
+        <f t="shared" ref="P4:P32" si="6">IF(AND(O4&gt;=0,O4&lt;2),"bajo",IF(AND(O4&gt;=2,O4&lt;=4),"medio",IF(AND(O4&gt;4,O4&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="Q4" s="29">
@@ -27276,7 +27467,7 @@
         <v>5</v>
       </c>
       <c r="U4" s="31" t="str">
-        <f t="shared" ref="U4:U32" si="8">IF(AND(T4&gt;=0,T4&lt;=2),"bajo",IF(AND(T4&gt;2,T4&lt;=4),"medio",IF(AND(T4&gt;4,T4&lt;=6),"alto")))</f>
+        <f t="shared" ref="U4:U32" si="8">IF(AND(T4&gt;=0,T4&lt;2),"bajo",IF(AND(T4&gt;=2,T4&lt;=4),"medio",IF(AND(T4&gt;4,T4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="V4" s="33">
@@ -27284,7 +27475,7 @@
         <v>17</v>
       </c>
       <c r="W4" s="33" t="str">
-        <f t="shared" ref="W4:W32" si="9">IF(AND(V4&gt;=0,V4&lt;8),"bajo",IF(AND(V4&gt;=8,V4&lt;16),"medio",IF(AND(V4&gt;=16,V4&lt;=24),"alto")))</f>
+        <f t="shared" ref="W4:W32" si="9">IF(AND(V4&gt;=0,V4&lt;8),"bajo",IF(AND(V4&gt;=8,V4&lt;=16),"medio",IF(AND(V4&gt;16,V4&lt;=24),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Y4" s="49" t="s">
@@ -27307,7 +27498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -27326,7 +27517,7 @@
       </c>
       <c r="F5" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G5" s="29">
         <v>1</v>
@@ -27407,7 +27598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -27492,11 +27683,11 @@
       </c>
       <c r="Z6" s="33">
         <f>COUNTIF(U3:U32,"bajo")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="33">
         <f>COUNTIF(U3:U32,"medio")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="33">
         <f>COUNTIF(U3:U32,"alto")</f>
@@ -27507,7 +27698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -27596,18 +27787,18 @@
       </c>
       <c r="AA7" s="33">
         <f>COUNTIF(W3:W32,"medio")</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="33">
         <f>COUNTIF(W3:W32,"alto")</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AC7" s="33">
         <f>SUM(Z7:AB7)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -27688,7 +27879,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -27766,10 +27957,10 @@
       </c>
       <c r="W9" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -27850,7 +28041,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -27928,10 +28119,10 @@
       </c>
       <c r="W11" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -27950,7 +28141,7 @@
       </c>
       <c r="F12" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G12" s="29">
         <v>2</v>
@@ -28012,7 +28203,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
@@ -28093,7 +28284,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -28174,7 +28365,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
@@ -28255,7 +28446,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -28336,7 +28527,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -28417,7 +28608,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>16</v>
       </c>
@@ -28495,10 +28686,10 @@
       </c>
       <c r="W18" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -28579,7 +28770,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>18</v>
       </c>
@@ -28660,7 +28851,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>19</v>
       </c>
@@ -28738,10 +28929,10 @@
       </c>
       <c r="W21" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>20</v>
       </c>
@@ -28822,7 +29013,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>21</v>
       </c>
@@ -28903,7 +29094,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>22</v>
       </c>
@@ -28973,7 +29164,7 @@
       </c>
       <c r="U24" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V24" s="33">
         <f t="shared" si="1"/>
@@ -28984,7 +29175,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>23</v>
       </c>
@@ -29065,7 +29256,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>24</v>
       </c>
@@ -29146,7 +29337,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>25</v>
       </c>
@@ -29224,10 +29415,10 @@
       </c>
       <c r="W27" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>26</v>
       </c>
@@ -29308,7 +29499,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>27</v>
       </c>
@@ -29386,10 +29577,10 @@
       </c>
       <c r="W29" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>28</v>
       </c>
@@ -29467,10 +29658,10 @@
       </c>
       <c r="W30" s="33" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>29</v>
       </c>
@@ -29551,7 +29742,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>30</v>
       </c>
@@ -29632,7 +29823,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
@@ -29648,7 +29839,10 @@
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="35">
+        <f>SUM(E3:E32)</f>
+        <v>126</v>
+      </c>
       <c r="F33" s="36"/>
       <c r="G33" s="37">
         <f t="shared" ref="G33:I33" si="11">SUM(G3:G32)</f>
@@ -29662,7 +29856,10 @@
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="37">
+        <f>SUM(J3:J32)</f>
+        <v>136</v>
+      </c>
       <c r="K33" s="29"/>
       <c r="L33" s="38">
         <f>SUM(L3:L32)</f>
@@ -29676,7 +29873,10 @@
         <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="O33" s="29"/>
+      <c r="O33" s="38">
+        <f>SUM(O3:O32)</f>
+        <v>133</v>
+      </c>
       <c r="P33" s="29"/>
       <c r="Q33" s="37">
         <f t="shared" ref="Q33:S33" si="13">SUM(Q3:Q32)</f>
@@ -29690,72 +29890,93 @@
         <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="T33" s="29"/>
+      <c r="T33" s="37">
+        <f>SUM(T3:T32)</f>
+        <v>131</v>
+      </c>
       <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
+      <c r="V33" s="53">
+        <f>SUM(V3:V32)</f>
+        <v>526</v>
+      </c>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="42">
-        <f>B33/($A$32*2)</f>
+        <f>B33/(30*2)</f>
         <v>0.7</v>
       </c>
       <c r="C34" s="42">
-        <f>C33/($A$32*2)</f>
+        <f t="shared" ref="C34:D34" si="14">C33/(30*2)</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="D34" s="42">
-        <f>D33/($A$32*2)</f>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="42">
+        <f>E33/(30*6)</f>
+        <v>0.7</v>
+      </c>
       <c r="F34" s="43"/>
       <c r="G34" s="44">
-        <f>G33/($A$32*2)</f>
+        <f>G33/(30*2)</f>
         <v>0.7</v>
       </c>
       <c r="H34" s="44">
-        <f>H33/($A$32*2)</f>
+        <f t="shared" ref="H34:I34" si="15">H33/(30*2)</f>
         <v>0.8</v>
       </c>
       <c r="I34" s="44">
-        <f>I33/($A$32*2)</f>
+        <f t="shared" si="15"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="J34" s="43"/>
+      <c r="J34" s="44">
+        <f>J33/(30*6)</f>
+        <v>0.75555555555555554</v>
+      </c>
       <c r="K34" s="43"/>
       <c r="L34" s="45">
-        <f>L33/($A$32*2)</f>
+        <f>L33/(30*2)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M34" s="45">
-        <f>M33/($A$32*2)</f>
+        <f t="shared" ref="M34:N34" si="16">M33/(30*2)</f>
         <v>0.8</v>
       </c>
       <c r="N34" s="45">
-        <f>N33/($A$32*2)</f>
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
-      <c r="O34" s="43"/>
+      <c r="O34" s="45">
+        <f>O33/(30*6)</f>
+        <v>0.73888888888888893</v>
+      </c>
       <c r="P34" s="43"/>
       <c r="Q34" s="44">
-        <f>Q33/($A$32*2)</f>
+        <f>Q33/(30*2)</f>
         <v>0.7</v>
       </c>
       <c r="R34" s="44">
-        <f>R33/($A$32*2)</f>
+        <f t="shared" ref="R34:S34" si="17">R33/(30*2)</f>
         <v>0.78333333333333333</v>
       </c>
       <c r="S34" s="44">
-        <f>S33/($A$32*2)</f>
+        <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
-      <c r="T34" s="43"/>
+      <c r="T34" s="44">
+        <f>T33/(30*6)</f>
+        <v>0.72777777777777775</v>
+      </c>
       <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
+      <c r="V34" s="57">
+        <f>V33/(30*24)</f>
+        <v>0.73055555555555551</v>
+      </c>
       <c r="W34" s="43"/>
     </row>
   </sheetData>
@@ -29772,26 +29993,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
         <v>17</v>
@@ -29800,7 +30021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
         <v>50</v>
       </c>
@@ -29813,7 +30034,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>51</v>
       </c>
@@ -29826,7 +30047,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>52</v>
       </c>
@@ -29839,14 +30060,14 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="68" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
         <v>17</v>
@@ -29855,7 +30076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="s">
         <v>53</v>
       </c>
@@ -29868,7 +30089,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
         <v>54</v>
       </c>
@@ -29881,7 +30102,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="49" t="s">
         <v>55</v>
       </c>
@@ -29894,14 +30115,14 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="61" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
         <v>17</v>
@@ -29910,7 +30131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
         <v>56</v>
       </c>
@@ -29923,7 +30144,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
         <v>57</v>
       </c>
@@ -29936,7 +30157,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
         <v>58</v>
       </c>
@@ -29949,14 +30170,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="64" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="50"/>
       <c r="C46" s="50" t="s">
         <v>17</v>
@@ -29965,7 +30186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="49" t="s">
         <v>62</v>
       </c>
@@ -29978,7 +30199,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="49" t="s">
         <v>63</v>
       </c>
@@ -29991,7 +30212,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="49" t="s">
         <v>64</v>
       </c>
@@ -30017,29 +30238,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="23" max="23" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="W2" s="2"/>
       <c r="X2" s="15" t="s">
         <v>8</v>
@@ -30051,7 +30273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -30076,96 +30298,96 @@
       </c>
       <c r="X3" s="9">
         <f>'Comparación Dimensiones'!$B$4</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y3" s="9">
         <f>'Comparación Dimensiones'!$B$5</f>
-        <v>0.3</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Z3" s="9">
         <f>'Comparación Dimensiones'!$B$6</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="21">
         <f>C4/$C$7</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="2">
         <f>Pretest!$Z$3</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="21">
         <f>G4/$G$7</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>Postest!Z3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="X4" s="9">
         <f>'Comparación Dimensiones'!$F$4</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f>'Comparación Dimensiones'!$F$5</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="Z4" s="9">
         <f>'Comparación Dimensiones'!$F$6</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="21">
         <f>C5/$C$7</f>
-        <v>0.3</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C5" s="2">
         <f>Pretest!$AA$3</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="21">
         <f>G5/$G$7</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="2">
         <f>Postest!AA3</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X5" s="9">
         <f>'Comparación Dimensiones'!$B$16</f>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="Y5" s="9">
         <f>'Comparación Dimensiones'!$B$17</f>
-        <v>0.36666666666666664</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z5" s="9">
         <f>'Comparación Dimensiones'!$B$18</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -30204,7 +30426,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -30232,18 +30454,18 @@
       </c>
       <c r="X7" s="9">
         <f>'Comparación Dimensiones'!$B$28</f>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="Y7" s="9">
         <f>'Comparación Dimensiones'!$B$29</f>
-        <v>0.36666666666666664</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z7" s="9">
         <f>'Comparación Dimensiones'!$B$30</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W8" s="3" t="s">
         <v>74</v>
       </c>
@@ -30260,41 +30482,41 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W9" s="6" t="s">
         <v>75</v>
       </c>
       <c r="X9" s="9">
         <f>'Comparación Dimensiones'!B40</f>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="Y9" s="9">
         <f>'Comparación Dimensiones'!B41</f>
-        <v>0.36666666666666664</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z9" s="9">
         <f>'Comparación Dimensiones'!B42</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W10" s="6" t="s">
         <v>76</v>
       </c>
       <c r="X10" s="9">
         <f>'Comparación Dimensiones'!F40</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="9">
         <f>'Comparación Dimensiones'!F41</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Z10" s="9">
         <f>'Comparación Dimensiones'!F42</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W11" s="6" t="s">
         <v>77</v>
       </c>
@@ -30304,14 +30526,14 @@
       </c>
       <c r="Y11" s="9">
         <f>B54</f>
-        <v>0.53333333333333333</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="Z11" s="9">
         <f>B55</f>
-        <v>0.16666666666666666</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W12" s="6" t="s">
         <v>78</v>
       </c>
@@ -30321,25 +30543,25 @@
       </c>
       <c r="Y12" s="9">
         <f>F54</f>
-        <v>0.2</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="Z12" s="9">
         <f>F55</f>
-        <v>0.8</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -30360,17 +30582,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="21">
         <f>C16/$C$19</f>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C16" s="2">
         <f>Pretest!$Z$4</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -30384,17 +30606,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="21">
         <f>C17/$C$19</f>
-        <v>0.36666666666666664</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C17" s="2">
         <f>Pretest!$AA$4</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -30408,7 +30630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -30432,7 +30654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -30456,18 +30678,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -30488,17 +30710,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="8">
         <f>C28/$C$31</f>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C28" s="2">
         <f>Pretest!$Z$5</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -30512,17 +30734,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="8">
         <f>C29/$C$31</f>
-        <v>0.36666666666666664</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C29" s="2">
         <f>Pretest!$AA$5</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
@@ -30536,7 +30758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -30560,7 +30782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -30584,18 +30806,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
@@ -30616,55 +30838,55 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="8">
         <f>C40/$C$31</f>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C40" s="2">
         <f>Pretest!$Z$6</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="21">
         <f>G40/$G$31</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <f>Postest!Z6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="8">
         <f>C41/$C$31</f>
-        <v>0.36666666666666664</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C41" s="2">
         <f>Pretest!$AA$6</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="21">
         <f>G41/$G$31</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="2">
         <f>Postest!AA6</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -30688,7 +30910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -30712,18 +30934,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="74"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>18</v>
       </c>
@@ -30744,7 +30966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -30768,61 +30990,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="8">
         <f>C54/$C$31</f>
-        <v>0.53333333333333333</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C54" s="2">
         <f>Pretest!$AA$7</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="21">
         <f>G54/$G$31</f>
-        <v>0.2</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G54" s="2">
         <f>Postest!AA7</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="8">
         <f>C55/$C$31</f>
-        <v>0.16666666666666666</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C55" s="2">
         <f>Pretest!$AB$7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="21">
         <f>G55/$G$31</f>
-        <v>0.8</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G55" s="2">
         <f>Postest!AB7</f>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="9">
         <f>SUM(B53:B55)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
         <f>SUM(C53:C55)</f>
@@ -30838,6 +31060,89 @@
       <c r="G56" s="2">
         <f>SUM(G53:G55)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="9">
+        <f>Pretest!E34</f>
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C67" s="9">
+        <f>Postest!E34</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="9">
+        <f>Pretest!J34</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C68" s="9">
+        <f>Postest!J34</f>
+        <v>0.75555555555555554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="9">
+        <f>Pretest!O34</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C69" s="9">
+        <f>Postest!O34</f>
+        <v>0.73888888888888893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="9">
+        <f>Pretest!T34</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C70" s="9">
+        <f>Postest!T34</f>
+        <v>0.72777777777777775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="9">
+        <f>Pretest!V34</f>
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="C78" s="9">
+        <f>Postest!V34</f>
+        <v>0.73055555555555551</v>
       </c>
     </row>
   </sheetData>
@@ -30855,33 +31160,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -30900,7 +31205,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -30910,14 +31215,14 @@
       </c>
       <c r="C3" s="2">
         <f>Postest!Z3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -30942,7 +31247,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -30967,7 +31272,7 @@
         <v>0.9747777033155951</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -30977,7 +31282,7 @@
       </c>
       <c r="C6" s="2">
         <f>Postest!Z6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>26</v>
@@ -30992,7 +31297,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -31017,7 +31322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -31042,7 +31347,7 @@
         <v>5.3390773665902982</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -31067,7 +31372,7 @@
         <v>28.505747126436791</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -31092,7 +31397,7 @@
         <v>3.9532546082949298</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -31117,7 +31422,7 @@
         <v>-3.2475104754835428E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -31142,7 +31447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -31167,7 +31472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -31192,7 +31497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -31217,7 +31522,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -31242,7 +31547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -31255,7 +31560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -31268,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -31281,7 +31586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -31294,7 +31599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -31307,7 +31612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -31320,7 +31625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -31333,7 +31638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -31346,7 +31651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -31359,7 +31664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -31372,7 +31677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -31385,7 +31690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -31398,7 +31703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -31411,7 +31716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -31424,7 +31729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -31437,7 +31742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -31461,26 +31766,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="17"/>
-    <col min="5" max="5" width="43.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="17"/>
+    <col min="4" max="4" width="10.875" style="17"/>
+    <col min="5" max="5" width="43.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
@@ -31496,7 +31801,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -31506,13 +31811,13 @@
       </c>
       <c r="C3" s="18">
         <f>Postest!Z3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -31532,7 +31837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -31554,7 +31859,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -31564,7 +31869,7 @@
       </c>
       <c r="C6" s="18">
         <f>Postest!Z6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>39</v>
@@ -31576,7 +31881,7 @@
         <v>28.505747126436791</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -31598,7 +31903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -31618,7 +31923,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -31638,7 +31943,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -31658,7 +31963,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -31678,7 +31983,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -31698,7 +32003,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -31718,7 +32023,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -31738,7 +32043,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -31758,7 +32063,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -31771,7 +32076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -31784,7 +32089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -31797,7 +32102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -31813,7 +32118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -31830,7 +32135,7 @@
         <v>No evidencia suficiente para afirmar que hubo un cambio significativo</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -31843,7 +32148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -31856,7 +32161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -31869,7 +32174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -31882,7 +32187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -31895,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -31908,7 +32213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -31921,7 +32226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -31934,7 +32239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -31947,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -31960,7 +32265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -31973,7 +32278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
